--- a/references/references_dsidd_v2.xlsx
+++ b/references/references_dsidd_v2.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\arnau\d-sidd Dropbox\Equipe\sites internet\Site rmarkdown\site-dsidd\references\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DSIDD3\d-sidd Dropbox\Equipe\sites internet\Site rmarkdown\site-dsidd\references\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BD85169-1E27-4C5D-BDFB-EA273111AF6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B2A2A8E-5AD0-4474-AF3E-49D6404BBC9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="11625" xr2:uid="{8A1639DB-56E8-489A-8363-79F7F85173AB}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{8A1639DB-56E8-489A-8363-79F7F85173AB}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Feuil1!$A$1:$J$42</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Feuil1!$A$1:$T$43</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="370" uniqueCount="151">
   <si>
     <t>Année d’exécution</t>
   </si>
@@ -280,9 +280,6 @@
 des attributions</t>
   </si>
   <si>
-    <t xml:space="preserve">Accompagnement de la plateforme d’appui aux transitions professionnelles portée par la PAM 74 </t>
-  </si>
-  <si>
     <t>Tableaux de bord emploi formation Bâtiment et Travaux publics région Ile de France</t>
   </si>
   <si>
@@ -355,15 +352,6 @@
     <t>T_Mesure du potentiel sur les territoires</t>
   </si>
   <si>
-    <t>T_Veille et recherche</t>
-  </si>
-  <si>
-    <t>T_Emploi/Formation</t>
-  </si>
-  <si>
-    <t>Libellé référence</t>
-  </si>
-  <si>
     <t>num</t>
   </si>
   <si>
@@ -376,9 +364,6 @@
     <t>2022, 2023, 2024 (en cours)</t>
   </si>
   <si>
-    <t>2023-2024 (en cours)</t>
-  </si>
-  <si>
     <t>ARGE</t>
   </si>
   <si>
@@ -434,6 +419,81 @@
   </si>
   <si>
     <t>Expérience professionnelle au sein du Labex Entreprendre, Université de Montpellier</t>
+  </si>
+  <si>
+    <t>start_dates</t>
+  </si>
+  <si>
+    <t>end_dates</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>Projets</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Accompagnement de la plateforme d’appui aux transitions professionnelles portée par la PAME 74 </t>
+  </si>
+  <si>
+    <t>DREETS ARA</t>
+  </si>
+  <si>
+    <t>selec</t>
+  </si>
+  <si>
+    <t>FRBTP Guadeloupe</t>
+  </si>
+  <si>
+    <t>Etude prospective de la filière Construction en Guadeloupe</t>
+  </si>
+  <si>
+    <t>CERC Occitanie, FFB Occitanie</t>
+  </si>
+  <si>
+    <t>Mission d'appui Observatoire territorialisé Habitat et Foncier</t>
+  </si>
+  <si>
+    <t>2023-2024</t>
+  </si>
+  <si>
+    <t>Aster Europe Conseil , Territeo</t>
+  </si>
+  <si>
+    <t>Région Bourgogne-Franche-Comte</t>
+  </si>
+  <si>
+    <t>T_Emploi/ Formation</t>
+  </si>
+  <si>
+    <t>Modélisation et conseil pour la mise en place de vérifications de gestion ciblées sur les risques dans le cadre du pilotage des fonds européens</t>
+  </si>
+  <si>
+    <t>Veille et recherche</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Désignation de la référence               </t>
+  </si>
+  <si>
+    <t>beta gouv</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Data Analyst pour la mission InserJeunes de beta.gouv </t>
+  </si>
+  <si>
+    <t>Depuis 2023</t>
+  </si>
+  <si>
+    <t>FFB Ocitanie</t>
+  </si>
+  <si>
+    <t>Traitement de données internes et cartographie</t>
+  </si>
+  <si>
+    <t>Mission de structuration des indicateurs des Plans de Protection de l’Atmosphère de Montpellier, Nîmes et Toulouse</t>
   </si>
 </sst>
 </file>
@@ -495,13 +555,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Monétaire" xfId="1" builtinId="4"/>
@@ -817,40 +878,42 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9B3B7FE-E50F-4A1F-B29E-52CC043F3381}">
-  <dimension ref="A1:P43"/>
+  <dimension ref="A1:T49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C1" sqref="C1"/>
+    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="3" width="22.59765625" customWidth="1"/>
+    <col min="2" max="3" width="22.5703125" customWidth="1"/>
     <col min="4" max="4" width="71" customWidth="1"/>
     <col min="5" max="5" width="18" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="18" customWidth="1"/>
-    <col min="7" max="7" width="11.86328125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.7109375" customWidth="1"/>
+    <col min="18" max="18" width="14.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="21" x14ac:dyDescent="0.65">
+    <row r="1" spans="1:20" ht="21" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>36</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="C1" s="3" t="s">
-        <v>93</v>
-      </c>
       <c r="D1" s="3" t="s">
-        <v>106</v>
+        <v>144</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="G1" t="s">
         <v>1</v>
@@ -865,25 +928,37 @@
         <v>61</v>
       </c>
       <c r="K1" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="L1" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="M1" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="N1" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="M1" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="N1" s="3" t="s">
+      <c r="O1" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="O1" s="3" t="s">
-        <v>103</v>
-      </c>
       <c r="P1" s="3" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.45">
+        <v>143</v>
+      </c>
+      <c r="Q1" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="R1" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="S1" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="T1" s="3" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>37</v>
       </c>
@@ -891,7 +966,7 @@
         <v>33</v>
       </c>
       <c r="C2" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="D2" t="s">
         <v>68</v>
@@ -913,10 +988,10 @@
         <v>42</v>
       </c>
       <c r="K2" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.45">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>37</v>
       </c>
@@ -924,7 +999,7 @@
         <v>34</v>
       </c>
       <c r="C3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D3" t="s">
         <v>69</v>
@@ -946,10 +1021,10 @@
         <v>42</v>
       </c>
       <c r="K3" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.45">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>37</v>
       </c>
@@ -957,7 +1032,7 @@
         <v>29</v>
       </c>
       <c r="C4" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="D4" t="s">
         <v>30</v>
@@ -979,10 +1054,10 @@
         <v>42</v>
       </c>
       <c r="K4" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.45">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>37</v>
       </c>
@@ -990,7 +1065,7 @@
         <v>53</v>
       </c>
       <c r="C5" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="D5" t="s">
         <v>26</v>
@@ -1012,10 +1087,10 @@
         <v>62</v>
       </c>
       <c r="K5" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.45">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>37</v>
       </c>
@@ -1023,7 +1098,7 @@
         <v>52</v>
       </c>
       <c r="C6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D6" t="s">
         <v>26</v>
@@ -1045,10 +1120,10 @@
         <v>62</v>
       </c>
       <c r="K6" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.45">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>37</v>
       </c>
@@ -1056,7 +1131,7 @@
         <v>27</v>
       </c>
       <c r="C7" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="D7" t="s">
         <v>28</v>
@@ -1078,10 +1153,10 @@
         <v>42</v>
       </c>
       <c r="K7" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.45">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>37</v>
       </c>
@@ -1089,7 +1164,7 @@
         <v>54</v>
       </c>
       <c r="C8" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D8" t="s">
         <v>26</v>
@@ -1111,10 +1186,10 @@
         <v>62</v>
       </c>
       <c r="K8" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.45">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>37</v>
       </c>
@@ -1140,10 +1215,10 @@
         <v>62</v>
       </c>
       <c r="K9" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.45">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>37</v>
       </c>
@@ -1172,10 +1247,10 @@
         <v>42</v>
       </c>
       <c r="K10" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.45">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>37</v>
       </c>
@@ -1183,7 +1258,7 @@
         <v>3</v>
       </c>
       <c r="C11" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="D11" t="s">
         <v>4</v>
@@ -1205,10 +1280,13 @@
         <v>42</v>
       </c>
       <c r="L11" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.45">
+        <v>90</v>
+      </c>
+      <c r="T11" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>37</v>
       </c>
@@ -1216,7 +1294,7 @@
         <v>2</v>
       </c>
       <c r="C12" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D12" t="s">
         <v>65</v>
@@ -1238,10 +1316,10 @@
         <v>42</v>
       </c>
       <c r="L12" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.45">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>37</v>
       </c>
@@ -1249,7 +1327,7 @@
         <v>5</v>
       </c>
       <c r="C13" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="D13" t="s">
         <v>63</v>
@@ -1271,10 +1349,13 @@
         <v>42</v>
       </c>
       <c r="L13" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.45">
+        <v>90</v>
+      </c>
+      <c r="T13" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>37</v>
       </c>
@@ -1282,7 +1363,7 @@
         <v>6</v>
       </c>
       <c r="C14" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="D14" t="s">
         <v>64</v>
@@ -1304,10 +1385,10 @@
         <v>42</v>
       </c>
       <c r="L14" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.45">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>37</v>
       </c>
@@ -1315,7 +1396,7 @@
         <v>48</v>
       </c>
       <c r="C15" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D15" t="s">
         <v>47</v>
@@ -1337,10 +1418,10 @@
         <v>42</v>
       </c>
       <c r="L15" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.45">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>37</v>
       </c>
@@ -1348,7 +1429,7 @@
         <v>58</v>
       </c>
       <c r="C16" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="D16" t="s">
         <v>70</v>
@@ -1370,15 +1451,15 @@
         <v>42</v>
       </c>
       <c r="L16" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.45">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>7</v>
       </c>
       <c r="C17" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="D17" t="s">
         <v>8</v>
@@ -1399,15 +1480,15 @@
         <v>42</v>
       </c>
       <c r="L17" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.45">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>37</v>
       </c>
       <c r="C18" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="D18" t="s">
         <v>19</v>
@@ -1429,10 +1510,10 @@
         <v>42</v>
       </c>
       <c r="N18" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.45">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>37</v>
       </c>
@@ -1440,7 +1521,7 @@
         <v>17</v>
       </c>
       <c r="C19" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D19" t="s">
         <v>18</v>
@@ -1462,10 +1543,13 @@
         <v>62</v>
       </c>
       <c r="N19" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.45">
+        <v>90</v>
+      </c>
+      <c r="T19" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>37</v>
       </c>
@@ -1473,7 +1557,7 @@
         <v>15</v>
       </c>
       <c r="C20" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="D20" t="s">
         <v>16</v>
@@ -1495,10 +1579,13 @@
         <v>62</v>
       </c>
       <c r="N20" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.45">
+        <v>90</v>
+      </c>
+      <c r="T20" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>37</v>
       </c>
@@ -1506,7 +1593,7 @@
         <v>13</v>
       </c>
       <c r="C21" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D21" t="s">
         <v>14</v>
@@ -1528,10 +1615,10 @@
         <v>62</v>
       </c>
       <c r="N21" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.45">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>37</v>
       </c>
@@ -1539,7 +1626,7 @@
         <v>71</v>
       </c>
       <c r="C22" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D22" t="s">
         <v>10</v>
@@ -1561,10 +1648,10 @@
         <v>42</v>
       </c>
       <c r="N22" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.45">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>37</v>
       </c>
@@ -1572,7 +1659,7 @@
         <v>11</v>
       </c>
       <c r="C23" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="D23" t="s">
         <v>12</v>
@@ -1594,10 +1681,10 @@
         <v>42</v>
       </c>
       <c r="N23" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.45">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>37</v>
       </c>
@@ -1605,7 +1692,7 @@
         <v>49</v>
       </c>
       <c r="C24" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="D24" t="s">
         <v>72</v>
@@ -1627,10 +1714,13 @@
         <v>42</v>
       </c>
       <c r="N24" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.45">
+        <v>90</v>
+      </c>
+      <c r="T24" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>37</v>
       </c>
@@ -1638,7 +1728,7 @@
         <v>51</v>
       </c>
       <c r="C25" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="D25" t="s">
         <v>50</v>
@@ -1660,18 +1750,18 @@
         <v>42</v>
       </c>
       <c r="N25" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.45">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>37</v>
       </c>
       <c r="B26" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="C26" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="D26" t="s">
         <v>73</v>
@@ -1693,10 +1783,10 @@
         <v>42</v>
       </c>
       <c r="N26" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.45">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>37</v>
       </c>
@@ -1726,10 +1816,19 @@
         <v>42</v>
       </c>
       <c r="N27" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.45">
+        <v>90</v>
+      </c>
+      <c r="Q27" s="4">
+        <v>44887</v>
+      </c>
+      <c r="R27" s="4">
+        <v>45260</v>
+      </c>
+      <c r="S27" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>37</v>
       </c>
@@ -1737,7 +1836,7 @@
         <v>46</v>
       </c>
       <c r="C28" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D28" t="s">
         <v>44</v>
@@ -1761,10 +1860,22 @@
         <v>42</v>
       </c>
       <c r="N28" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.45">
+        <v>90</v>
+      </c>
+      <c r="Q28" s="4">
+        <v>45261</v>
+      </c>
+      <c r="R28" s="4">
+        <v>45291</v>
+      </c>
+      <c r="S28" t="s">
+        <v>128</v>
+      </c>
+      <c r="T28" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>37</v>
       </c>
@@ -1791,10 +1902,10 @@
         <v>42</v>
       </c>
       <c r="O29" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.45">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>37</v>
       </c>
@@ -1802,7 +1913,7 @@
         <v>25</v>
       </c>
       <c r="C30" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="D30" t="s">
         <v>74</v>
@@ -1824,10 +1935,10 @@
         <v>42</v>
       </c>
       <c r="O30" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.45">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>37</v>
       </c>
@@ -1835,7 +1946,7 @@
         <v>20</v>
       </c>
       <c r="C31" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="D31" t="s">
         <v>75</v>
@@ -1857,10 +1968,10 @@
         <v>42</v>
       </c>
       <c r="O31" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.45">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>37</v>
       </c>
@@ -1887,10 +1998,10 @@
         <v>42</v>
       </c>
       <c r="O32" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.45">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>37</v>
       </c>
@@ -1917,15 +2028,15 @@
         <v>42</v>
       </c>
       <c r="O33" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.45">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>41</v>
       </c>
       <c r="C34" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="D34" t="s">
         <v>39</v>
@@ -1947,30 +2058,30 @@
         <v>42</v>
       </c>
       <c r="O34" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="P34" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.45">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>37</v>
       </c>
       <c r="B35" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C35" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D35" t="s">
         <v>77</v>
       </c>
       <c r="E35" t="s">
-        <v>111</v>
+        <v>138</v>
       </c>
       <c r="F35">
-        <v>2024</v>
+        <v>20241</v>
       </c>
       <c r="G35" s="1">
         <v>5075</v>
@@ -1979,18 +2090,18 @@
         <v>42</v>
       </c>
       <c r="K35" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="36" spans="1:16" ht="42.75" x14ac:dyDescent="0.45">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20" ht="45" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>37</v>
       </c>
       <c r="B36" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C36" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D36" s="2" t="s">
         <v>78</v>
@@ -2009,18 +2120,21 @@
         <v>42</v>
       </c>
       <c r="N36" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.45">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>37</v>
       </c>
       <c r="B37" t="s">
-        <v>85</v>
+        <v>132</v>
+      </c>
+      <c r="C37" t="s">
+        <v>84</v>
       </c>
       <c r="D37" t="s">
-        <v>79</v>
+        <v>131</v>
       </c>
       <c r="E37">
         <v>2022</v>
@@ -2036,21 +2150,24 @@
         <v>42</v>
       </c>
       <c r="L37" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="M37" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.45">
+        <v>90</v>
+      </c>
+      <c r="T37" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="38" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D38" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E38">
         <v>2023</v>
@@ -2066,24 +2183,27 @@
         <v>42</v>
       </c>
       <c r="L38" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="M38" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.45">
+        <v>90</v>
+      </c>
+      <c r="T38" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="39" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C39" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D39" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E39">
         <v>2023</v>
@@ -2099,27 +2219,27 @@
         <v>42</v>
       </c>
       <c r="L39" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.45">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="40" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>37</v>
       </c>
       <c r="B40" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C40" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D40" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E40" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="F40">
-        <v>2024</v>
+        <v>20243</v>
       </c>
       <c r="G40" s="1">
         <f>6300*2</f>
@@ -2129,21 +2249,21 @@
         <v>42</v>
       </c>
       <c r="L40" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.45">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="41" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>37</v>
       </c>
       <c r="B41" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C41" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D41" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E41">
         <v>2022</v>
@@ -2159,21 +2279,21 @@
         <v>42</v>
       </c>
       <c r="L41" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.45">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="42" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>37</v>
       </c>
       <c r="B42" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C42" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D42" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E42">
         <v>2022</v>
@@ -2188,31 +2308,34 @@
       <c r="I42" t="s">
         <v>42</v>
       </c>
-      <c r="J42" t="s">
-        <v>42</v>
-      </c>
       <c r="L42" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.45">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="43" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>37</v>
       </c>
       <c r="B43" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="C43" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D43" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="E43" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="F43">
-        <v>2025</v>
+        <v>20245</v>
+      </c>
+      <c r="G43" s="1">
+        <v>48400</v>
+      </c>
+      <c r="H43" t="s">
+        <v>42</v>
       </c>
       <c r="I43" t="s">
         <v>42</v>
@@ -2221,17 +2344,249 @@
         <v>42</v>
       </c>
       <c r="L43" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="N43" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="O43" t="s">
-        <v>91</v>
+        <v>90</v>
+      </c>
+      <c r="Q43" s="4">
+        <v>45310</v>
+      </c>
+      <c r="R43" s="4">
+        <v>45657</v>
+      </c>
+      <c r="S43" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="44" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>37</v>
+      </c>
+      <c r="B44" t="s">
+        <v>134</v>
+      </c>
+      <c r="C44" t="s">
+        <v>84</v>
+      </c>
+      <c r="D44" t="s">
+        <v>135</v>
+      </c>
+      <c r="E44" t="s">
+        <v>105</v>
+      </c>
+      <c r="F44">
+        <v>20244</v>
+      </c>
+      <c r="G44" s="1">
+        <v>9750</v>
+      </c>
+      <c r="I44" t="s">
+        <v>42</v>
+      </c>
+      <c r="L44" t="s">
+        <v>90</v>
+      </c>
+      <c r="M44" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q44" s="4">
+        <v>45323</v>
+      </c>
+      <c r="R44" s="4">
+        <v>45627</v>
+      </c>
+      <c r="S44" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="45" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>37</v>
+      </c>
+      <c r="B45" t="s">
+        <v>136</v>
+      </c>
+      <c r="D45" t="s">
+        <v>137</v>
+      </c>
+      <c r="E45">
+        <v>2024</v>
+      </c>
+      <c r="F45">
+        <v>20242</v>
+      </c>
+      <c r="G45" s="1">
+        <f>800*20</f>
+        <v>16000</v>
+      </c>
+      <c r="I45" t="s">
+        <v>42</v>
+      </c>
+      <c r="L45" t="s">
+        <v>90</v>
+      </c>
+      <c r="N45" t="s">
+        <v>90</v>
+      </c>
+      <c r="O45" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q45" s="4">
+        <v>45323</v>
+      </c>
+      <c r="R45" s="4">
+        <v>45473</v>
+      </c>
+    </row>
+    <row r="46" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>37</v>
+      </c>
+      <c r="B46" t="s">
+        <v>140</v>
+      </c>
+      <c r="C46" t="s">
+        <v>139</v>
+      </c>
+      <c r="D46" t="s">
+        <v>142</v>
+      </c>
+      <c r="E46">
+        <v>2024</v>
+      </c>
+      <c r="F46">
+        <v>20246</v>
+      </c>
+      <c r="G46" s="1">
+        <v>17213</v>
+      </c>
+      <c r="H46" t="s">
+        <v>42</v>
+      </c>
+      <c r="I46" t="s">
+        <v>42</v>
+      </c>
+      <c r="J46" t="s">
+        <v>42</v>
+      </c>
+      <c r="L46" t="s">
+        <v>90</v>
+      </c>
+      <c r="O46" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q46" s="4">
+        <v>45323</v>
+      </c>
+      <c r="R46" s="4">
+        <v>45566</v>
+      </c>
+    </row>
+    <row r="47" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>37</v>
+      </c>
+      <c r="B47" t="s">
+        <v>145</v>
+      </c>
+      <c r="D47" t="s">
+        <v>146</v>
+      </c>
+      <c r="E47" t="s">
+        <v>147</v>
+      </c>
+      <c r="F47">
+        <v>2023</v>
+      </c>
+      <c r="G47" s="1">
+        <v>85000</v>
+      </c>
+      <c r="H47" t="s">
+        <v>42</v>
+      </c>
+      <c r="J47" t="s">
+        <v>42</v>
+      </c>
+      <c r="M47" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q47" s="4">
+        <v>45108</v>
+      </c>
+    </row>
+    <row r="48" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>37</v>
+      </c>
+      <c r="B48" t="s">
+        <v>148</v>
+      </c>
+      <c r="D48" t="s">
+        <v>149</v>
+      </c>
+      <c r="E48">
+        <v>2024</v>
+      </c>
+      <c r="F48">
+        <v>20247</v>
+      </c>
+      <c r="G48" s="1">
+        <f>800*10</f>
+        <v>8000</v>
+      </c>
+      <c r="I48" t="s">
+        <v>42</v>
+      </c>
+      <c r="O48" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q48" s="4">
+        <v>45566</v>
+      </c>
+      <c r="R48" s="4">
+        <v>45657</v>
+      </c>
+    </row>
+    <row r="49" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>37</v>
+      </c>
+      <c r="B49" t="s">
+        <v>57</v>
+      </c>
+      <c r="D49" t="s">
+        <v>150</v>
+      </c>
+      <c r="E49">
+        <v>2024</v>
+      </c>
+      <c r="F49">
+        <v>20248</v>
+      </c>
+      <c r="G49" s="1">
+        <v>16200</v>
+      </c>
+      <c r="I49" t="s">
+        <v>42</v>
+      </c>
+      <c r="N49" t="s">
+        <v>90</v>
+      </c>
+      <c r="O49" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q49" s="4">
+        <v>45536</v>
+      </c>
+      <c r="R49" s="4">
+        <v>45657</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:J42" xr:uid="{D9B3B7FE-E50F-4A1F-B29E-52CC043F3381}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I34">
     <sortCondition ref="E2:E34"/>
   </sortState>
